--- a/output_tables/SR2_results_P_LIN_non_calibrated_21HS.xlsx
+++ b/output_tables/SR2_results_P_LIN_non_calibrated_21HS.xlsx
@@ -441,52 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LT</t>
+          <t>BestFeatureLT</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>R2 LT</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LS</t>
+          <t>BestFeatureLS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>R2 LS</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LS2</t>
+          <t>BestFeatureLS2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>R2 LS2</t>
+          <t>LS2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature 10</t>
+          <t>BestFeature10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>R2 10</t>
+          <t>Top_layer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature 50</t>
+          <t>BestFeature50</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>R2 50</t>
+          <t>Bottom_layer</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -506,23 +506,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3595</v>
+        <v>0.3115</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3635</v>
+        <v>0.314</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -530,11 +530,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.268</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -553,19 +553,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5525</v>
+        <v>0.5405</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5525</v>
+        <v>0.5405</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -573,15 +573,15 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.8095000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.494</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="4">
@@ -592,7 +592,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -600,19 +600,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5365</v>
+        <v>0.5185</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5365</v>
+        <v>0.5185</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -620,15 +620,15 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.702</v>
+        <v>0.5265</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.405</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="5">
@@ -639,7 +639,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -647,23 +647,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3995</v>
+        <v>0.402</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4285</v>
+        <v>0.4195</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -671,11 +671,11 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="6">
@@ -686,7 +686,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HCP0.5</t>
+          <t>HCPHQP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -698,15 +698,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6425000000000001</v>
+        <v>0.6365000000000001</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.652</v>
+        <v>0.614</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>PRP0.6</t>
+          <t>PRPHQP</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.384</v>
+        <v>0.3475</v>
       </c>
     </row>
   </sheetData>
